--- a/target/test-classes/TBR/Xlsdata_Files/Candidates.xlsx
+++ b/target/test-classes/TBR/Xlsdata_Files/Candidates.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="4230" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="5115" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="AddNewCandidate" sheetId="3" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -213,13 +213,16 @@
     <t>candidate-30</t>
   </si>
   <si>
-    <t>abcd@fdsag.gfskliu</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
     <t>powerstar</t>
+  </si>
+  <si>
+    <t>qwerty</t>
+  </si>
+  <si>
+    <t>abcd@hhhh.jjjjo</t>
+  </si>
+  <si>
+    <t>powerrz</t>
   </si>
 </sst>
 </file>
@@ -711,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -780,10 +783,10 @@
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
@@ -792,10 +795,10 @@
         <v>23</v>
       </c>
       <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" t="s">
         <v>62</v>
-      </c>
-      <c r="F2" t="s">
-        <v>26</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>35</v>

--- a/target/test-classes/TBR/Xlsdata_Files/Candidates.xlsx
+++ b/target/test-classes/TBR/Xlsdata_Files/Candidates.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10845" windowHeight="5115" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12270" windowHeight="3795"/>
   </bookViews>
   <sheets>
-    <sheet name="AddNewCandidate" sheetId="3" r:id="rId1"/>
+    <sheet name="AddNewCandidate" sheetId="5" r:id="rId1"/>
     <sheet name="AddNewCandidates" sheetId="4" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
@@ -18,7 +18,7 @@
     <definedName name="statusCandidate">Sheet2!$D$3:$D$5</definedName>
   </definedNames>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:L28"/>
+  <oleSize ref="A1:D10"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="178">
   <si>
     <t>PhoneNumber</t>
   </si>
@@ -99,18 +99,12 @@
     <t>CandidateAddress</t>
   </si>
   <si>
-    <t>Dublin</t>
-  </si>
-  <si>
     <t>CandidateUsername</t>
   </si>
   <si>
     <t>CandidatePassword</t>
   </si>
   <si>
-    <t>qwerty1</t>
-  </si>
-  <si>
     <t>runmode</t>
   </si>
   <si>
@@ -195,40 +189,385 @@
     <t>Ground Infantry</t>
   </si>
   <si>
-    <t>gardavetting</t>
-  </si>
-  <si>
-    <t>trainingComplete</t>
-  </si>
-  <si>
-    <t>proof to work</t>
-  </si>
-  <si>
-    <t>candidate30</t>
-  </si>
-  <si>
-    <t>abcd@zxcv.lk</t>
-  </si>
-  <si>
-    <t>candidate-30</t>
-  </si>
-  <si>
-    <t>powerstar</t>
-  </si>
-  <si>
     <t>qwerty</t>
   </si>
   <si>
-    <t>abcd@hhhh.jjjjo</t>
-  </si>
-  <si>
-    <t>powerrz</t>
+    <t>Kevin</t>
+  </si>
+  <si>
+    <t>kevin.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>sai.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>jackie.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>khan.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>kalyan.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>sam.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>nani.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>kapoor.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>raichu.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>cameroon.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>shane.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>tendulkar.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>watson.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>murali.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>sujay.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>greg.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>mark.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>waugh.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>steve.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>yvonne.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>castor.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>dale.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>samuel.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>megan.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>risheek.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>durga.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>rasool.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>macha.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>sai</t>
+  </si>
+  <si>
+    <t>jackie</t>
+  </si>
+  <si>
+    <t>khan</t>
+  </si>
+  <si>
+    <t>kalyan</t>
+  </si>
+  <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>nani</t>
+  </si>
+  <si>
+    <t>kapoor</t>
+  </si>
+  <si>
+    <t>raichu</t>
+  </si>
+  <si>
+    <t>cameroon</t>
+  </si>
+  <si>
+    <t>shane</t>
+  </si>
+  <si>
+    <t>tendulkar</t>
+  </si>
+  <si>
+    <t>watson</t>
+  </si>
+  <si>
+    <t>murali</t>
+  </si>
+  <si>
+    <t>sujay</t>
+  </si>
+  <si>
+    <t>greg</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>waugh</t>
+  </si>
+  <si>
+    <t>steve</t>
+  </si>
+  <si>
+    <t>yvonne</t>
+  </si>
+  <si>
+    <t>castor</t>
+  </si>
+  <si>
+    <t>dale</t>
+  </si>
+  <si>
+    <t>samuel</t>
+  </si>
+  <si>
+    <t>megan</t>
+  </si>
+  <si>
+    <t>risheek</t>
+  </si>
+  <si>
+    <t>durga</t>
+  </si>
+  <si>
+    <t>rasool</t>
+  </si>
+  <si>
+    <t>macha</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 1</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 2</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 3</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 4</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 5</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 6</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 7</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 8</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 9</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 10</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 11</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 12</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 13</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 14</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 15</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 16</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 17</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 18</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 19</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 20</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 21</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 22</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 23</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 24</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 25</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 26</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 27</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 28</t>
+  </si>
+  <si>
+    <t>Henry Street, Dublin 29</t>
+  </si>
+  <si>
+    <t>kevino</t>
+  </si>
+  <si>
+    <t>saio</t>
+  </si>
+  <si>
+    <t>shaneo</t>
+  </si>
+  <si>
+    <t>watsons</t>
+  </si>
+  <si>
+    <t>marks</t>
+  </si>
+  <si>
+    <t>hanna</t>
+  </si>
+  <si>
+    <t>hanna.tempbuddy@gmail.com</t>
+  </si>
+  <si>
+    <t>12346</t>
+  </si>
+  <si>
+    <t>12347</t>
+  </si>
+  <si>
+    <t>12348</t>
+  </si>
+  <si>
+    <t>12349</t>
+  </si>
+  <si>
+    <t>12350</t>
+  </si>
+  <si>
+    <t>12351</t>
+  </si>
+  <si>
+    <t>12352</t>
+  </si>
+  <si>
+    <t>12353</t>
+  </si>
+  <si>
+    <t>12354</t>
+  </si>
+  <si>
+    <t>12355</t>
+  </si>
+  <si>
+    <t>12356</t>
+  </si>
+  <si>
+    <t>12357</t>
+  </si>
+  <si>
+    <t>12358</t>
+  </si>
+  <si>
+    <t>12359</t>
+  </si>
+  <si>
+    <t>12360</t>
+  </si>
+  <si>
+    <t>12361</t>
+  </si>
+  <si>
+    <t>12362</t>
+  </si>
+  <si>
+    <t>12363</t>
+  </si>
+  <si>
+    <t>12364</t>
+  </si>
+  <si>
+    <t>12365</t>
+  </si>
+  <si>
+    <t>12366</t>
+  </si>
+  <si>
+    <t>12367</t>
+  </si>
+  <si>
+    <t>12368</t>
+  </si>
+  <si>
+    <t>12343</t>
+  </si>
+  <si>
+    <t>12344</t>
+  </si>
+  <si>
+    <t>12369</t>
+  </si>
+  <si>
+    <t>12370</t>
+  </si>
+  <si>
+    <t>12371</t>
+  </si>
+  <si>
+    <t>driverlicense</t>
+  </si>
+  <si>
+    <t>jimmy</t>
+  </si>
+  <si>
+    <t>kalyan.temp@jnmjnm</t>
+  </si>
+  <si>
+    <t>jimmykolo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -560,29 +899,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="32" customWidth="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="24.5703125" customWidth="1"/>
-    <col min="11" max="11" width="22.42578125" customWidth="1"/>
-    <col min="12" max="16" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="15" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" customWidth="1"/>
+    <col min="7" max="7" width="20.140625" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" customWidth="1"/>
+    <col min="14" max="14" width="15" customWidth="1"/>
+    <col min="15" max="15" width="15.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -596,99 +935,80 @@
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="S1" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>59</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>114</v>
       </c>
       <c r="E2" t="s">
-        <v>60</v>
+        <v>177</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>35</v>
+        <v>147</v>
       </c>
       <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" customFormat="1" x14ac:dyDescent="0.25"/>
+        <v>29</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
@@ -700,29 +1020,29 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="I2" r:id="rId3"/>
-    <hyperlink ref="K2" r:id="rId4"/>
-    <hyperlink ref="L2" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId6"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W2"/>
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="R2" sqref="R2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="32.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
@@ -739,104 +1059,898 @@
         <v>22</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="M2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" t="s">
+        <v>140</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H3" t="s">
+        <v>29</v>
+      </c>
+      <c r="M3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" t="s">
+        <v>86</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H6" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" t="s">
+        <v>29</v>
+      </c>
+      <c r="M7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>116</v>
+      </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="H8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="H9" t="s">
+        <v>29</v>
+      </c>
+      <c r="M9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
+        <v>118</v>
+      </c>
+      <c r="E10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="M2" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" t="s">
-        <v>55</v>
-      </c>
-      <c r="O2" t="s">
-        <v>56</v>
-      </c>
-      <c r="P2" t="s">
-        <v>57</v>
+      <c r="C11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
+      </c>
+      <c r="F11" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="H11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
+        <v>120</v>
+      </c>
+      <c r="E12" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H12" t="s">
+        <v>29</v>
+      </c>
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H13" t="s">
+        <v>29</v>
+      </c>
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" t="s">
+        <v>29</v>
+      </c>
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>95</v>
+      </c>
+      <c r="F15" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="H15" t="s">
+        <v>29</v>
+      </c>
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="H16" t="s">
+        <v>29</v>
+      </c>
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
+        <v>125</v>
+      </c>
+      <c r="E17" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" t="s">
+        <v>53</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="H17" t="s">
+        <v>29</v>
+      </c>
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+      <c r="F18" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H18" t="s">
+        <v>29</v>
+      </c>
+      <c r="M18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H19" t="s">
+        <v>29</v>
+      </c>
+      <c r="M19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>100</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E20" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="H20" t="s">
+        <v>29</v>
+      </c>
+      <c r="M20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E21" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" t="s">
+        <v>53</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="H21" t="s">
+        <v>29</v>
+      </c>
+      <c r="M21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>101</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" t="s">
+        <v>53</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="H22" t="s">
+        <v>29</v>
+      </c>
+      <c r="M22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>102</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" t="s">
+        <v>29</v>
+      </c>
+      <c r="M23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E24" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" t="s">
+        <v>29</v>
+      </c>
+      <c r="M24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H25" t="s">
+        <v>29</v>
+      </c>
+      <c r="M25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
+        <v>134</v>
+      </c>
+      <c r="E26" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" t="s">
+        <v>29</v>
+      </c>
+      <c r="M26" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>135</v>
+      </c>
+      <c r="E27" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H27" t="s">
+        <v>29</v>
+      </c>
+      <c r="M27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="H28" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H29" t="s">
+        <v>29</v>
+      </c>
+      <c r="M29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H30" t="s">
+        <v>29</v>
+      </c>
+      <c r="M30" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M30">
       <formula1>candidateCategory</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H30">
       <formula1>statusCandidate</formula1>
     </dataValidation>
   </dataValidations>
@@ -846,6 +1960,34 @@
     <hyperlink ref="I2" r:id="rId3"/>
     <hyperlink ref="K2" r:id="rId4"/>
     <hyperlink ref="L2" r:id="rId5"/>
+    <hyperlink ref="B3" r:id="rId6"/>
+    <hyperlink ref="B4" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId8"/>
+    <hyperlink ref="B6" r:id="rId9"/>
+    <hyperlink ref="B7" r:id="rId10"/>
+    <hyperlink ref="B8" r:id="rId11"/>
+    <hyperlink ref="B9" r:id="rId12"/>
+    <hyperlink ref="B10" r:id="rId13"/>
+    <hyperlink ref="B11" r:id="rId14"/>
+    <hyperlink ref="B12" r:id="rId15"/>
+    <hyperlink ref="B13" r:id="rId16"/>
+    <hyperlink ref="B14" r:id="rId17"/>
+    <hyperlink ref="B15" r:id="rId18"/>
+    <hyperlink ref="B16" r:id="rId19"/>
+    <hyperlink ref="B17" r:id="rId20"/>
+    <hyperlink ref="B18" r:id="rId21"/>
+    <hyperlink ref="B19" r:id="rId22"/>
+    <hyperlink ref="B20" r:id="rId23"/>
+    <hyperlink ref="B21" r:id="rId24"/>
+    <hyperlink ref="B22" r:id="rId25"/>
+    <hyperlink ref="B23" r:id="rId26"/>
+    <hyperlink ref="B24" r:id="rId27"/>
+    <hyperlink ref="B25" r:id="rId28"/>
+    <hyperlink ref="B26" r:id="rId29"/>
+    <hyperlink ref="B27" r:id="rId30"/>
+    <hyperlink ref="B28" r:id="rId31"/>
+    <hyperlink ref="B29" r:id="rId32"/>
+    <hyperlink ref="B30" r:id="rId33"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -879,10 +2021,10 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -896,10 +2038,10 @@
         <v>21</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -910,10 +2052,10 @@
         <v>1915</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -924,10 +2066,10 @@
         <v>1916</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -938,10 +2080,10 @@
         <v>1917</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -952,7 +2094,7 @@
         <v>1918</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,7 +2105,7 @@
         <v>1919</v>
       </c>
       <c r="E7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -974,7 +2116,7 @@
         <v>1920</v>
       </c>
       <c r="E8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
